--- a/hema/3-单袋比.xlsx
+++ b/hema/3-单袋比.xlsx
@@ -1309,10 +1309,10 @@
     <xf numFmtId="22" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1880,7 +1880,7 @@
     <row r="1" spans="1:9">
       <c r="A1" s="47">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2228,6 +2228,7 @@
       <c r="I62" s="43"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
   <sortState ref="A3:H81">
     <sortCondition ref="F6:F81" descending="1"/>
   </sortState>
@@ -2346,45 +2347,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.35714285714286" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="9.57142857142857" style="39" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.2142857142857" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.9285714285714" style="39" customWidth="1"/>
-    <col min="6" max="7" width="36.3571428571429" style="39" customWidth="1"/>
-    <col min="8" max="8" width="33.2857142857143" style="39" customWidth="1"/>
-    <col min="9" max="9" width="20.0714285714286" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="11" max="12" width="14" style="39" customWidth="1"/>
-    <col min="13" max="13" width="22.7857142857143" style="39" customWidth="1"/>
-    <col min="14" max="14" width="16.2142857142857" style="39" customWidth="1"/>
-    <col min="15" max="15" width="22.7857142857143" style="39" customWidth="1"/>
-    <col min="16" max="16" width="9.57142857142857" style="39" customWidth="1"/>
-    <col min="17" max="17" width="14" style="39" customWidth="1"/>
-    <col min="18" max="18" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="19" max="20" width="9.57142857142857" style="39" customWidth="1"/>
-    <col min="21" max="21" width="16.2142857142857" style="39" customWidth="1"/>
-    <col min="22" max="22" width="18.4285714285714" style="39" customWidth="1"/>
-    <col min="23" max="23" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="24" max="24" width="9.57142857142857" style="39" customWidth="1"/>
-    <col min="25" max="28" width="16.2142857142857" style="39" customWidth="1"/>
-    <col min="29" max="30" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="31" max="33" width="12.7857142857143" style="39" customWidth="1"/>
-    <col min="34" max="35" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="36" max="37" width="12.7857142857143" style="39" customWidth="1"/>
-    <col min="38" max="38" width="16.2142857142857" style="39" customWidth="1"/>
-    <col min="39" max="39" width="18.4285714285714" style="39" customWidth="1"/>
-    <col min="40" max="40" width="16.7142857142857" style="39" customWidth="1"/>
-    <col min="41" max="41" width="18.9285714285714" style="39" customWidth="1"/>
-    <col min="42" max="42" width="9.57142857142857" style="39" customWidth="1"/>
-    <col min="43" max="43" width="11.7142857142857" style="39" customWidth="1"/>
-    <col min="44" max="44" width="12.7142857142857" style="39" customWidth="1"/>
-    <col min="45" max="47" width="12.6428571428571" style="39" customWidth="1"/>
-    <col min="48" max="48" width="18.4285714285714" style="39" customWidth="1"/>
-    <col min="49" max="49" width="16.2142857142857" style="39" customWidth="1"/>
-    <col min="50" max="50" width="17.1428571428571" style="39" customWidth="1"/>
-    <col min="51" max="51" width="17.0714285714286" style="39" customWidth="1"/>
-    <col min="52" max="52" width="9.57142857142857" style="39" customWidth="1"/>
-    <col min="53" max="16384" width="8.35714285714286" style="39"/>
+    <col min="1" max="2" width="9.57142857142857" style="40" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.2142857142857" style="40" customWidth="1"/>
+    <col min="5" max="5" width="22.9285714285714" style="40" customWidth="1"/>
+    <col min="6" max="7" width="36.3571428571429" style="40" customWidth="1"/>
+    <col min="8" max="8" width="33.2857142857143" style="40" customWidth="1"/>
+    <col min="9" max="9" width="20.0714285714286" style="40" customWidth="1"/>
+    <col min="10" max="10" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="11" max="12" width="14" style="40" customWidth="1"/>
+    <col min="13" max="13" width="22.7857142857143" style="40" customWidth="1"/>
+    <col min="14" max="14" width="16.2142857142857" style="40" customWidth="1"/>
+    <col min="15" max="15" width="22.7857142857143" style="40" customWidth="1"/>
+    <col min="16" max="16" width="9.57142857142857" style="40" customWidth="1"/>
+    <col min="17" max="17" width="14" style="40" customWidth="1"/>
+    <col min="18" max="18" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="19" max="20" width="9.57142857142857" style="40" customWidth="1"/>
+    <col min="21" max="21" width="16.2142857142857" style="40" customWidth="1"/>
+    <col min="22" max="22" width="18.4285714285714" style="40" customWidth="1"/>
+    <col min="23" max="23" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="24" max="24" width="9.57142857142857" style="40" customWidth="1"/>
+    <col min="25" max="28" width="16.2142857142857" style="40" customWidth="1"/>
+    <col min="29" max="30" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="31" max="33" width="12.7857142857143" style="40" customWidth="1"/>
+    <col min="34" max="35" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="36" max="37" width="12.7857142857143" style="40" customWidth="1"/>
+    <col min="38" max="38" width="16.2142857142857" style="40" customWidth="1"/>
+    <col min="39" max="39" width="18.4285714285714" style="40" customWidth="1"/>
+    <col min="40" max="40" width="16.7142857142857" style="40" customWidth="1"/>
+    <col min="41" max="41" width="18.9285714285714" style="40" customWidth="1"/>
+    <col min="42" max="42" width="9.57142857142857" style="40" customWidth="1"/>
+    <col min="43" max="43" width="11.7142857142857" style="40" customWidth="1"/>
+    <col min="44" max="44" width="12.7142857142857" style="40" customWidth="1"/>
+    <col min="45" max="47" width="12.6428571428571" style="40" customWidth="1"/>
+    <col min="48" max="48" width="18.4285714285714" style="40" customWidth="1"/>
+    <col min="49" max="49" width="16.2142857142857" style="40" customWidth="1"/>
+    <col min="50" max="50" width="17.1428571428571" style="40" customWidth="1"/>
+    <col min="51" max="51" width="17.0714285714286" style="40" customWidth="1"/>
+    <col min="52" max="52" width="9.57142857142857" style="40" customWidth="1"/>
+    <col min="53" max="16384" width="8.35714285714286" style="40"/>
   </cols>
   <sheetData/>
   <sortState ref="A3:AZ66">
@@ -2414,87 +2415,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33035714285714" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="9.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="18.8303571428571" style="39" customWidth="1"/>
-    <col min="4" max="4" width="9.33035714285714" style="39" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="39" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="11.8303571428571" style="39" customWidth="1"/>
-    <col min="8" max="8" width="7.16071428571429" style="39" customWidth="1"/>
-    <col min="9" max="9" width="16.3303571428571" style="39" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="39" customWidth="1"/>
-    <col min="11" max="11" width="23" style="39" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="39" customWidth="1"/>
-    <col min="13" max="13" width="8" style="39" customWidth="1"/>
-    <col min="14" max="14" width="9.5" style="39" customWidth="1"/>
-    <col min="15" max="15" width="18.5" style="39" customWidth="1"/>
-    <col min="16" max="16" width="12.8303571428571" style="39" customWidth="1"/>
-    <col min="17" max="17" width="12" style="39" customWidth="1"/>
-    <col min="18" max="16384" width="8.33035714285714" style="39"/>
+    <col min="1" max="2" width="9.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="18.8303571428571" style="40" customWidth="1"/>
+    <col min="4" max="4" width="9.33035714285714" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="40" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
+    <col min="7" max="7" width="11.8303571428571" style="40" customWidth="1"/>
+    <col min="8" max="8" width="7.16071428571429" style="40" customWidth="1"/>
+    <col min="9" max="9" width="16.3303571428571" style="40" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="40" customWidth="1"/>
+    <col min="11" max="11" width="23" style="40" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="40" customWidth="1"/>
+    <col min="13" max="13" width="8" style="40" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="40" customWidth="1"/>
+    <col min="15" max="15" width="18.5" style="40" customWidth="1"/>
+    <col min="16" max="16" width="12.8303571428571" style="40" customWidth="1"/>
+    <col min="17" max="17" width="12" style="40" customWidth="1"/>
+    <col min="18" max="16384" width="8.33035714285714" style="40"/>
   </cols>
   <sheetData>
-    <row r="1048515" s="40" customFormat="1"/>
-    <row r="1048516" s="40" customFormat="1"/>
-    <row r="1048517" s="40" customFormat="1"/>
-    <row r="1048518" s="40" customFormat="1"/>
-    <row r="1048519" s="40" customFormat="1"/>
-    <row r="1048520" s="40" customFormat="1"/>
-    <row r="1048521" s="40" customFormat="1"/>
-    <row r="1048522" s="40" customFormat="1"/>
-    <row r="1048523" s="40" customFormat="1"/>
-    <row r="1048524" s="40" customFormat="1"/>
-    <row r="1048525" s="40" customFormat="1"/>
-    <row r="1048526" s="40" customFormat="1"/>
-    <row r="1048527" s="40" customFormat="1"/>
-    <row r="1048528" s="40" customFormat="1"/>
-    <row r="1048529" s="40" customFormat="1"/>
-    <row r="1048530" s="40" customFormat="1"/>
-    <row r="1048531" s="40" customFormat="1"/>
-    <row r="1048532" s="40" customFormat="1"/>
-    <row r="1048533" s="40" customFormat="1"/>
-    <row r="1048534" s="40" customFormat="1"/>
-    <row r="1048535" s="40" customFormat="1"/>
-    <row r="1048536" s="40" customFormat="1"/>
-    <row r="1048537" s="40" customFormat="1"/>
-    <row r="1048538" s="40" customFormat="1"/>
-    <row r="1048539" s="40" customFormat="1"/>
-    <row r="1048540" s="40" customFormat="1"/>
-    <row r="1048541" s="40" customFormat="1"/>
-    <row r="1048542" s="40" customFormat="1"/>
-    <row r="1048543" s="40" customFormat="1"/>
-    <row r="1048544" s="40" customFormat="1"/>
-    <row r="1048545" s="40" customFormat="1"/>
-    <row r="1048546" s="40" customFormat="1"/>
-    <row r="1048547" s="40" customFormat="1"/>
-    <row r="1048548" s="40" customFormat="1"/>
-    <row r="1048549" s="40" customFormat="1"/>
-    <row r="1048550" s="40" customFormat="1"/>
-    <row r="1048551" s="40" customFormat="1"/>
-    <row r="1048552" s="40" customFormat="1"/>
-    <row r="1048553" s="40" customFormat="1"/>
-    <row r="1048554" s="40" customFormat="1"/>
-    <row r="1048555" s="40" customFormat="1"/>
-    <row r="1048556" s="40" customFormat="1"/>
-    <row r="1048557" s="40" customFormat="1"/>
-    <row r="1048558" s="40" customFormat="1"/>
-    <row r="1048559" s="40" customFormat="1"/>
-    <row r="1048560" s="40" customFormat="1"/>
-    <row r="1048561" s="40" customFormat="1"/>
-    <row r="1048562" s="40" customFormat="1"/>
-    <row r="1048563" s="40" customFormat="1"/>
-    <row r="1048564" s="40" customFormat="1"/>
-    <row r="1048565" s="40" customFormat="1"/>
-    <row r="1048566" s="40" customFormat="1"/>
-    <row r="1048567" s="40" customFormat="1"/>
-    <row r="1048568" s="40" customFormat="1"/>
-    <row r="1048569" s="40" customFormat="1"/>
-    <row r="1048570" s="40" customFormat="1"/>
-    <row r="1048571" s="40" customFormat="1"/>
-    <row r="1048572" s="40" customFormat="1"/>
-    <row r="1048573" s="40" customFormat="1"/>
-    <row r="1048574" s="40" customFormat="1"/>
-    <row r="1048575" s="40" customFormat="1"/>
-    <row r="1048576" s="40" customFormat="1"/>
+    <row r="1048515" s="39" customFormat="1"/>
+    <row r="1048516" s="39" customFormat="1"/>
+    <row r="1048517" s="39" customFormat="1"/>
+    <row r="1048518" s="39" customFormat="1"/>
+    <row r="1048519" s="39" customFormat="1"/>
+    <row r="1048520" s="39" customFormat="1"/>
+    <row r="1048521" s="39" customFormat="1"/>
+    <row r="1048522" s="39" customFormat="1"/>
+    <row r="1048523" s="39" customFormat="1"/>
+    <row r="1048524" s="39" customFormat="1"/>
+    <row r="1048525" s="39" customFormat="1"/>
+    <row r="1048526" s="39" customFormat="1"/>
+    <row r="1048527" s="39" customFormat="1"/>
+    <row r="1048528" s="39" customFormat="1"/>
+    <row r="1048529" s="39" customFormat="1"/>
+    <row r="1048530" s="39" customFormat="1"/>
+    <row r="1048531" s="39" customFormat="1"/>
+    <row r="1048532" s="39" customFormat="1"/>
+    <row r="1048533" s="39" customFormat="1"/>
+    <row r="1048534" s="39" customFormat="1"/>
+    <row r="1048535" s="39" customFormat="1"/>
+    <row r="1048536" s="39" customFormat="1"/>
+    <row r="1048537" s="39" customFormat="1"/>
+    <row r="1048538" s="39" customFormat="1"/>
+    <row r="1048539" s="39" customFormat="1"/>
+    <row r="1048540" s="39" customFormat="1"/>
+    <row r="1048541" s="39" customFormat="1"/>
+    <row r="1048542" s="39" customFormat="1"/>
+    <row r="1048543" s="39" customFormat="1"/>
+    <row r="1048544" s="39" customFormat="1"/>
+    <row r="1048545" s="39" customFormat="1"/>
+    <row r="1048546" s="39" customFormat="1"/>
+    <row r="1048547" s="39" customFormat="1"/>
+    <row r="1048548" s="39" customFormat="1"/>
+    <row r="1048549" s="39" customFormat="1"/>
+    <row r="1048550" s="39" customFormat="1"/>
+    <row r="1048551" s="39" customFormat="1"/>
+    <row r="1048552" s="39" customFormat="1"/>
+    <row r="1048553" s="39" customFormat="1"/>
+    <row r="1048554" s="39" customFormat="1"/>
+    <row r="1048555" s="39" customFormat="1"/>
+    <row r="1048556" s="39" customFormat="1"/>
+    <row r="1048557" s="39" customFormat="1"/>
+    <row r="1048558" s="39" customFormat="1"/>
+    <row r="1048559" s="39" customFormat="1"/>
+    <row r="1048560" s="39" customFormat="1"/>
+    <row r="1048561" s="39" customFormat="1"/>
+    <row r="1048562" s="39" customFormat="1"/>
+    <row r="1048563" s="39" customFormat="1"/>
+    <row r="1048564" s="39" customFormat="1"/>
+    <row r="1048565" s="39" customFormat="1"/>
+    <row r="1048566" s="39" customFormat="1"/>
+    <row r="1048567" s="39" customFormat="1"/>
+    <row r="1048568" s="39" customFormat="1"/>
+    <row r="1048569" s="39" customFormat="1"/>
+    <row r="1048570" s="39" customFormat="1"/>
+    <row r="1048571" s="39" customFormat="1"/>
+    <row r="1048572" s="39" customFormat="1"/>
+    <row r="1048573" s="39" customFormat="1"/>
+    <row r="1048574" s="39" customFormat="1"/>
+    <row r="1048575" s="39" customFormat="1"/>
+    <row r="1048576" s="39" customFormat="1"/>
   </sheetData>
   <sortState ref="A2:Q79">
     <sortCondition ref="P77" descending="1"/>
@@ -2532,7 +2533,7 @@
     <col min="12" max="16384" width="110.714285714286" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:11">
+    <row r="1" spans="1:11">
       <c r="A1" s="27"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
@@ -2545,7 +2546,7 @@
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
     </row>
-    <row r="2" ht="17.55" spans="1:11">
+    <row r="2" spans="1:11">
       <c r="A2" s="28"/>
       <c r="B2" s="37"/>
       <c r="C2" s="28"/>
@@ -2558,7 +2559,7 @@
       <c r="J2" s="37"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" ht="17.55" spans="1:11">
+    <row r="3" spans="1:11">
       <c r="A3" s="30"/>
       <c r="B3" s="38"/>
       <c r="C3" s="30"/>
@@ -2571,7 +2572,7 @@
       <c r="J3" s="38"/>
       <c r="K3" s="30"/>
     </row>
-    <row r="4" ht="17.55" spans="1:11">
+    <row r="4" spans="1:11">
       <c r="A4" s="30"/>
       <c r="B4" s="38"/>
       <c r="C4" s="30"/>
@@ -2584,7 +2585,7 @@
       <c r="J4" s="38"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" ht="17.55" spans="1:11">
+    <row r="5" spans="1:11">
       <c r="A5" s="30"/>
       <c r="B5" s="38"/>
       <c r="C5" s="30"/>
@@ -2597,7 +2598,7 @@
       <c r="J5" s="38"/>
       <c r="K5" s="30"/>
     </row>
-    <row r="6" ht="17.55" spans="1:11">
+    <row r="6" spans="1:11">
       <c r="A6" s="30"/>
       <c r="B6" s="38"/>
       <c r="C6" s="30"/>
@@ -2610,7 +2611,7 @@
       <c r="J6" s="38"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" ht="17.55" spans="1:11">
+    <row r="7" spans="1:11">
       <c r="A7" s="30"/>
       <c r="B7" s="38"/>
       <c r="C7" s="30"/>
@@ -2623,7 +2624,7 @@
       <c r="J7" s="38"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" ht="17.55" spans="1:11">
+    <row r="8" spans="1:11">
       <c r="A8" s="30"/>
       <c r="B8" s="38"/>
       <c r="C8" s="30"/>
@@ -2636,7 +2637,7 @@
       <c r="J8" s="38"/>
       <c r="K8" s="30"/>
     </row>
-    <row r="9" ht="17.55" spans="1:11">
+    <row r="9" spans="1:11">
       <c r="A9" s="30"/>
       <c r="B9" s="38"/>
       <c r="C9" s="30"/>
@@ -2649,7 +2650,7 @@
       <c r="J9" s="38"/>
       <c r="K9" s="30"/>
     </row>
-    <row r="10" ht="17.55" spans="1:11">
+    <row r="10" spans="1:11">
       <c r="A10" s="30"/>
       <c r="B10" s="38"/>
       <c r="C10" s="30"/>
@@ -2662,7 +2663,7 @@
       <c r="J10" s="38"/>
       <c r="K10" s="30"/>
     </row>
-    <row r="11" ht="17.55" spans="1:11">
+    <row r="11" spans="1:11">
       <c r="A11" s="30"/>
       <c r="B11" s="38"/>
       <c r="C11" s="30"/>
@@ -2675,7 +2676,7 @@
       <c r="J11" s="38"/>
       <c r="K11" s="30"/>
     </row>
-    <row r="12" ht="17.55" spans="1:11">
+    <row r="12" spans="1:11">
       <c r="A12" s="30"/>
       <c r="B12" s="38"/>
       <c r="C12" s="30"/>
@@ -2688,7 +2689,7 @@
       <c r="J12" s="38"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" ht="17.55" spans="1:11">
+    <row r="13" spans="1:11">
       <c r="A13" s="30"/>
       <c r="B13" s="38"/>
       <c r="C13" s="30"/>
@@ -2701,7 +2702,7 @@
       <c r="J13" s="38"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" ht="17.55" spans="1:11">
+    <row r="14" spans="1:11">
       <c r="A14" s="30"/>
       <c r="B14" s="38"/>
       <c r="C14" s="30"/>
@@ -2714,7 +2715,7 @@
       <c r="J14" s="38"/>
       <c r="K14" s="30"/>
     </row>
-    <row r="15" ht="17.55" spans="1:11">
+    <row r="15" spans="1:11">
       <c r="A15" s="30"/>
       <c r="B15" s="38"/>
       <c r="C15" s="30"/>
@@ -2727,7 +2728,7 @@
       <c r="J15" s="38"/>
       <c r="K15" s="30"/>
     </row>
-    <row r="16" ht="17.55" spans="1:11">
+    <row r="16" spans="1:11">
       <c r="A16" s="30"/>
       <c r="B16" s="38"/>
       <c r="C16" s="30"/>
@@ -2740,7 +2741,7 @@
       <c r="J16" s="38"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" ht="17.55" spans="1:11">
+    <row r="17" spans="1:11">
       <c r="A17" s="30"/>
       <c r="B17" s="38"/>
       <c r="C17" s="30"/>
@@ -2753,7 +2754,7 @@
       <c r="J17" s="38"/>
       <c r="K17" s="30"/>
     </row>
-    <row r="18" ht="17.55" spans="1:11">
+    <row r="18" spans="1:11">
       <c r="A18" s="30"/>
       <c r="B18" s="38"/>
       <c r="C18" s="30"/>
@@ -2766,7 +2767,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="30"/>
     </row>
-    <row r="19" ht="17.55" spans="1:11">
+    <row r="19" spans="1:11">
       <c r="A19" s="30"/>
       <c r="B19" s="38"/>
       <c r="C19" s="30"/>
@@ -2779,7 +2780,7 @@
       <c r="J19" s="38"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" ht="17.55" spans="1:11">
+    <row r="20" spans="1:11">
       <c r="A20" s="30"/>
       <c r="B20" s="38"/>
       <c r="C20" s="30"/>
@@ -2792,7 +2793,7 @@
       <c r="J20" s="38"/>
       <c r="K20" s="30"/>
     </row>
-    <row r="21" ht="17.55" spans="1:11">
+    <row r="21" spans="1:11">
       <c r="A21" s="30"/>
       <c r="B21" s="38"/>
       <c r="C21" s="30"/>
@@ -2805,7 +2806,7 @@
       <c r="J21" s="38"/>
       <c r="K21" s="30"/>
     </row>
-    <row r="22" ht="17.55" spans="1:11">
+    <row r="22" spans="1:11">
       <c r="A22" s="30"/>
       <c r="B22" s="38"/>
       <c r="C22" s="30"/>
@@ -2818,7 +2819,7 @@
       <c r="J22" s="38"/>
       <c r="K22" s="30"/>
     </row>
-    <row r="23" ht="17.55" spans="1:11">
+    <row r="23" spans="1:11">
       <c r="A23" s="30"/>
       <c r="B23" s="38"/>
       <c r="C23" s="30"/>
@@ -2831,7 +2832,7 @@
       <c r="J23" s="38"/>
       <c r="K23" s="30"/>
     </row>
-    <row r="24" ht="17.55" spans="1:11">
+    <row r="24" spans="1:11">
       <c r="A24" s="30"/>
       <c r="B24" s="38"/>
       <c r="C24" s="30"/>
@@ -2844,7 +2845,7 @@
       <c r="J24" s="38"/>
       <c r="K24" s="30"/>
     </row>
-    <row r="25" ht="17.55" spans="1:11">
+    <row r="25" spans="1:11">
       <c r="A25" s="30"/>
       <c r="B25" s="38"/>
       <c r="C25" s="30"/>
@@ -2857,7 +2858,7 @@
       <c r="J25" s="38"/>
       <c r="K25" s="30"/>
     </row>
-    <row r="26" ht="17.55" spans="1:11">
+    <row r="26" spans="1:11">
       <c r="A26" s="30"/>
       <c r="B26" s="38"/>
       <c r="C26" s="30"/>
@@ -2870,7 +2871,7 @@
       <c r="J26" s="38"/>
       <c r="K26" s="30"/>
     </row>
-    <row r="27" ht="17.55" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" s="30"/>
       <c r="B27" s="38"/>
       <c r="C27" s="30"/>
@@ -2883,7 +2884,7 @@
       <c r="J27" s="38"/>
       <c r="K27" s="30"/>
     </row>
-    <row r="28" ht="17.55" spans="1:11">
+    <row r="28" spans="1:11">
       <c r="A28" s="30"/>
       <c r="B28" s="38"/>
       <c r="C28" s="30"/>
@@ -2896,7 +2897,7 @@
       <c r="J28" s="38"/>
       <c r="K28" s="30"/>
     </row>
-    <row r="29" ht="17.55" spans="1:11">
+    <row r="29" spans="1:11">
       <c r="A29" s="30"/>
       <c r="B29" s="38"/>
       <c r="C29" s="30"/>
@@ -2909,7 +2910,7 @@
       <c r="J29" s="38"/>
       <c r="K29" s="30"/>
     </row>
-    <row r="30" ht="17.55" spans="1:11">
+    <row r="30" spans="1:11">
       <c r="A30" s="30"/>
       <c r="B30" s="38"/>
       <c r="C30" s="30"/>
@@ -2922,7 +2923,7 @@
       <c r="J30" s="38"/>
       <c r="K30" s="30"/>
     </row>
-    <row r="31" ht="17.55" spans="1:11">
+    <row r="31" spans="1:11">
       <c r="A31" s="30"/>
       <c r="B31" s="38"/>
       <c r="C31" s="30"/>
@@ -2935,7 +2936,7 @@
       <c r="J31" s="38"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" ht="17.55" spans="1:11">
+    <row r="32" spans="1:11">
       <c r="A32" s="30"/>
       <c r="B32" s="38"/>
       <c r="C32" s="30"/>
@@ -2948,7 +2949,7 @@
       <c r="J32" s="38"/>
       <c r="K32" s="30"/>
     </row>
-    <row r="33" ht="17.55" spans="1:11">
+    <row r="33" spans="1:11">
       <c r="A33" s="30"/>
       <c r="B33" s="38"/>
       <c r="C33" s="30"/>
@@ -2961,7 +2962,7 @@
       <c r="J33" s="38"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" ht="17.55" spans="1:11">
+    <row r="34" spans="1:11">
       <c r="A34" s="30"/>
       <c r="B34" s="38"/>
       <c r="C34" s="30"/>
@@ -2974,7 +2975,7 @@
       <c r="J34" s="38"/>
       <c r="K34" s="30"/>
     </row>
-    <row r="35" ht="17.55" spans="1:11">
+    <row r="35" spans="1:11">
       <c r="A35" s="30"/>
       <c r="B35" s="38"/>
       <c r="C35" s="30"/>
@@ -2987,7 +2988,7 @@
       <c r="J35" s="38"/>
       <c r="K35" s="30"/>
     </row>
-    <row r="36" ht="17.55" spans="1:11">
+    <row r="36" spans="1:11">
       <c r="A36" s="30"/>
       <c r="B36" s="38"/>
       <c r="C36" s="30"/>
@@ -3000,7 +3001,7 @@
       <c r="J36" s="38"/>
       <c r="K36" s="30"/>
     </row>
-    <row r="37" ht="17.55" spans="1:11">
+    <row r="37" spans="1:11">
       <c r="A37" s="30"/>
       <c r="B37" s="38"/>
       <c r="C37" s="30"/>
@@ -3013,7 +3014,7 @@
       <c r="J37" s="38"/>
       <c r="K37" s="30"/>
     </row>
-    <row r="38" ht="17.55" spans="1:11">
+    <row r="38" spans="1:11">
       <c r="A38" s="30"/>
       <c r="B38" s="38"/>
       <c r="C38" s="30"/>
@@ -3026,7 +3027,7 @@
       <c r="J38" s="38"/>
       <c r="K38" s="30"/>
     </row>
-    <row r="39" ht="17.55" spans="1:11">
+    <row r="39" spans="1:11">
       <c r="A39" s="30"/>
       <c r="B39" s="38"/>
       <c r="C39" s="30"/>
@@ -3039,7 +3040,7 @@
       <c r="J39" s="38"/>
       <c r="K39" s="30"/>
     </row>
-    <row r="40" ht="17.55" spans="1:11">
+    <row r="40" spans="1:11">
       <c r="A40" s="30"/>
       <c r="B40" s="38"/>
       <c r="C40" s="30"/>
@@ -3052,7 +3053,7 @@
       <c r="J40" s="38"/>
       <c r="K40" s="30"/>
     </row>
-    <row r="41" ht="17.55" spans="1:11">
+    <row r="41" spans="1:11">
       <c r="A41" s="30"/>
       <c r="B41" s="38"/>
       <c r="C41" s="30"/>
@@ -3065,7 +3066,7 @@
       <c r="J41" s="38"/>
       <c r="K41" s="30"/>
     </row>
-    <row r="42" ht="17.55" spans="1:11">
+    <row r="42" spans="1:11">
       <c r="A42" s="30"/>
       <c r="B42" s="38"/>
       <c r="C42" s="30"/>
@@ -3078,7 +3079,7 @@
       <c r="J42" s="38"/>
       <c r="K42" s="30"/>
     </row>
-    <row r="43" ht="17.55" spans="1:11">
+    <row r="43" spans="1:11">
       <c r="A43" s="30"/>
       <c r="B43" s="38"/>
       <c r="C43" s="30"/>
@@ -3091,7 +3092,7 @@
       <c r="J43" s="38"/>
       <c r="K43" s="30"/>
     </row>
-    <row r="44" ht="17.55" spans="1:11">
+    <row r="44" spans="1:11">
       <c r="A44" s="30"/>
       <c r="B44" s="38"/>
       <c r="C44" s="30"/>
@@ -3104,7 +3105,7 @@
       <c r="J44" s="38"/>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" ht="17.55" spans="1:11">
+    <row r="45" spans="1:11">
       <c r="A45" s="30"/>
       <c r="B45" s="38"/>
       <c r="C45" s="30"/>
@@ -3117,7 +3118,7 @@
       <c r="J45" s="38"/>
       <c r="K45" s="30"/>
     </row>
-    <row r="46" ht="17.55" spans="1:11">
+    <row r="46" spans="1:11">
       <c r="A46" s="30"/>
       <c r="B46" s="38"/>
       <c r="C46" s="30"/>
@@ -3130,7 +3131,7 @@
       <c r="J46" s="38"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" ht="17.55" spans="1:11">
+    <row r="47" spans="1:11">
       <c r="A47" s="30"/>
       <c r="B47" s="38"/>
       <c r="C47" s="30"/>
@@ -3143,7 +3144,7 @@
       <c r="J47" s="38"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" ht="17.55" spans="1:11">
+    <row r="48" spans="1:11">
       <c r="A48" s="30"/>
       <c r="B48" s="38"/>
       <c r="C48" s="30"/>
@@ -3156,7 +3157,7 @@
       <c r="J48" s="38"/>
       <c r="K48" s="30"/>
     </row>
-    <row r="49" ht="17.55" spans="1:11">
+    <row r="49" spans="1:11">
       <c r="A49" s="30"/>
       <c r="B49" s="38"/>
       <c r="C49" s="30"/>
@@ -3169,7 +3170,7 @@
       <c r="J49" s="38"/>
       <c r="K49" s="30"/>
     </row>
-    <row r="50" ht="17.55" spans="1:11">
+    <row r="50" spans="1:11">
       <c r="A50" s="30"/>
       <c r="B50" s="38"/>
       <c r="C50" s="30"/>
@@ -3182,7 +3183,7 @@
       <c r="J50" s="38"/>
       <c r="K50" s="30"/>
     </row>
-    <row r="51" ht="17.55" spans="1:11">
+    <row r="51" spans="1:11">
       <c r="A51" s="30"/>
       <c r="B51" s="38"/>
       <c r="C51" s="30"/>
@@ -3195,7 +3196,7 @@
       <c r="J51" s="38"/>
       <c r="K51" s="30"/>
     </row>
-    <row r="52" ht="17.55" spans="1:11">
+    <row r="52" spans="1:11">
       <c r="A52" s="30"/>
       <c r="B52" s="38"/>
       <c r="C52" s="30"/>
@@ -3208,7 +3209,7 @@
       <c r="J52" s="38"/>
       <c r="K52" s="30"/>
     </row>
-    <row r="53" ht="17.55" spans="1:11">
+    <row r="53" spans="1:11">
       <c r="A53" s="30"/>
       <c r="B53" s="38"/>
       <c r="C53" s="30"/>
@@ -3221,7 +3222,7 @@
       <c r="J53" s="38"/>
       <c r="K53" s="30"/>
     </row>
-    <row r="54" ht="17.55" spans="1:11">
+    <row r="54" spans="1:11">
       <c r="A54" s="30"/>
       <c r="B54" s="38"/>
       <c r="C54" s="30"/>
@@ -3234,7 +3235,7 @@
       <c r="J54" s="38"/>
       <c r="K54" s="30"/>
     </row>
-    <row r="55" ht="17.55" spans="1:11">
+    <row r="55" spans="1:11">
       <c r="A55" s="30"/>
       <c r="B55" s="38"/>
       <c r="C55" s="30"/>
@@ -3247,7 +3248,7 @@
       <c r="J55" s="38"/>
       <c r="K55" s="30"/>
     </row>
-    <row r="56" ht="17.55" spans="1:11">
+    <row r="56" spans="1:11">
       <c r="A56" s="30"/>
       <c r="B56" s="38"/>
       <c r="C56" s="30"/>
@@ -3260,7 +3261,7 @@
       <c r="J56" s="38"/>
       <c r="K56" s="30"/>
     </row>
-    <row r="57" ht="17.55" spans="1:11">
+    <row r="57" spans="1:11">
       <c r="A57" s="30"/>
       <c r="B57" s="38"/>
       <c r="C57" s="30"/>
@@ -3273,7 +3274,7 @@
       <c r="J57" s="38"/>
       <c r="K57" s="30"/>
     </row>
-    <row r="58" ht="17.55" spans="1:11">
+    <row r="58" spans="1:11">
       <c r="A58" s="30"/>
       <c r="B58" s="38"/>
       <c r="C58" s="30"/>
@@ -3286,7 +3287,7 @@
       <c r="J58" s="38"/>
       <c r="K58" s="30"/>
     </row>
-    <row r="59" ht="17.55" spans="1:11">
+    <row r="59" spans="1:11">
       <c r="A59" s="30"/>
       <c r="B59" s="38"/>
       <c r="C59" s="30"/>
@@ -3299,7 +3300,7 @@
       <c r="J59" s="38"/>
       <c r="K59" s="30"/>
     </row>
-    <row r="60" ht="17.55" spans="1:11">
+    <row r="60" spans="1:11">
       <c r="A60" s="30"/>
       <c r="B60" s="38"/>
       <c r="C60" s="30"/>
@@ -3312,7 +3313,7 @@
       <c r="J60" s="38"/>
       <c r="K60" s="30"/>
     </row>
-    <row r="61" ht="17.55" spans="1:11">
+    <row r="61" spans="1:11">
       <c r="A61" s="30"/>
       <c r="B61" s="38"/>
       <c r="C61" s="30"/>
@@ -3325,7 +3326,7 @@
       <c r="J61" s="38"/>
       <c r="K61" s="30"/>
     </row>
-    <row r="62" ht="17.55" spans="1:11">
+    <row r="62" spans="1:11">
       <c r="A62" s="30"/>
       <c r="B62" s="38"/>
       <c r="C62" s="30"/>
@@ -3338,7 +3339,7 @@
       <c r="J62" s="38"/>
       <c r="K62" s="30"/>
     </row>
-    <row r="63" ht="17.55" spans="1:11">
+    <row r="63" spans="1:11">
       <c r="A63" s="30"/>
       <c r="B63" s="38"/>
       <c r="C63" s="30"/>
@@ -3351,7 +3352,7 @@
       <c r="J63" s="38"/>
       <c r="K63" s="30"/>
     </row>
-    <row r="64" ht="17.55" spans="1:11">
+    <row r="64" spans="1:11">
       <c r="A64" s="30"/>
       <c r="B64" s="38"/>
       <c r="C64" s="30"/>
@@ -3364,7 +3365,7 @@
       <c r="J64" s="38"/>
       <c r="K64" s="30"/>
     </row>
-    <row r="65" ht="17.55" spans="1:11">
+    <row r="65" spans="1:11">
       <c r="A65" s="30"/>
       <c r="B65" s="38"/>
       <c r="C65" s="30"/>
@@ -3377,7 +3378,7 @@
       <c r="J65" s="38"/>
       <c r="K65" s="30"/>
     </row>
-    <row r="66" ht="17.55" spans="1:11">
+    <row r="66" spans="1:11">
       <c r="A66" s="30"/>
       <c r="B66" s="38"/>
       <c r="C66" s="30"/>
@@ -3390,7 +3391,7 @@
       <c r="J66" s="38"/>
       <c r="K66" s="30"/>
     </row>
-    <row r="67" ht="17.55" spans="1:11">
+    <row r="67" spans="1:11">
       <c r="A67" s="30"/>
       <c r="B67" s="38"/>
       <c r="C67" s="30"/>
@@ -3403,7 +3404,7 @@
       <c r="J67" s="38"/>
       <c r="K67" s="30"/>
     </row>
-    <row r="68" ht="17.55" spans="1:11">
+    <row r="68" spans="1:11">
       <c r="A68" s="30"/>
       <c r="B68" s="38"/>
       <c r="C68" s="30"/>
@@ -3416,7 +3417,7 @@
       <c r="J68" s="38"/>
       <c r="K68" s="30"/>
     </row>
-    <row r="69" ht="17.55" spans="1:11">
+    <row r="69" spans="1:11">
       <c r="A69" s="30"/>
       <c r="B69" s="38"/>
       <c r="C69" s="30"/>
@@ -3429,7 +3430,7 @@
       <c r="J69" s="38"/>
       <c r="K69" s="30"/>
     </row>
-    <row r="70" ht="17.55" spans="1:11">
+    <row r="70" spans="1:11">
       <c r="A70" s="30"/>
       <c r="B70" s="38"/>
       <c r="C70" s="30"/>
@@ -3442,7 +3443,7 @@
       <c r="J70" s="38"/>
       <c r="K70" s="30"/>
     </row>
-    <row r="71" ht="17.55" spans="1:11">
+    <row r="71" spans="1:11">
       <c r="A71" s="30"/>
       <c r="B71" s="38"/>
       <c r="C71" s="30"/>
@@ -3455,7 +3456,7 @@
       <c r="J71" s="38"/>
       <c r="K71" s="30"/>
     </row>
-    <row r="72" ht="17.55" spans="1:11">
+    <row r="72" spans="1:11">
       <c r="A72" s="30"/>
       <c r="B72" s="38"/>
       <c r="C72" s="30"/>
@@ -3468,7 +3469,7 @@
       <c r="J72" s="38"/>
       <c r="K72" s="30"/>
     </row>
-    <row r="73" ht="17.55" spans="1:11">
+    <row r="73" spans="1:11">
       <c r="A73" s="30"/>
       <c r="B73" s="38"/>
       <c r="C73" s="30"/>
@@ -3481,7 +3482,7 @@
       <c r="J73" s="38"/>
       <c r="K73" s="30"/>
     </row>
-    <row r="74" ht="17.55" spans="1:11">
+    <row r="74" spans="1:11">
       <c r="A74" s="30"/>
       <c r="B74" s="38"/>
       <c r="C74" s="30"/>
@@ -3494,7 +3495,7 @@
       <c r="J74" s="38"/>
       <c r="K74" s="30"/>
     </row>
-    <row r="75" ht="17.55" spans="1:11">
+    <row r="75" spans="1:11">
       <c r="A75" s="30"/>
       <c r="B75" s="38"/>
       <c r="C75" s="30"/>
@@ -3507,7 +3508,7 @@
       <c r="J75" s="38"/>
       <c r="K75" s="30"/>
     </row>
-    <row r="76" ht="17.55" spans="1:11">
+    <row r="76" spans="1:11">
       <c r="A76" s="30"/>
       <c r="B76" s="38"/>
       <c r="C76" s="30"/>
@@ -3520,7 +3521,7 @@
       <c r="J76" s="38"/>
       <c r="K76" s="30"/>
     </row>
-    <row r="77" ht="17.55" spans="1:11">
+    <row r="77" spans="1:11">
       <c r="A77" s="30"/>
       <c r="B77" s="38"/>
       <c r="C77" s="30"/>
@@ -3533,7 +3534,7 @@
       <c r="J77" s="38"/>
       <c r="K77" s="30"/>
     </row>
-    <row r="78" ht="17.55" spans="1:11">
+    <row r="78" spans="1:11">
       <c r="A78" s="30"/>
       <c r="B78" s="38"/>
       <c r="C78" s="30"/>
@@ -3546,7 +3547,7 @@
       <c r="J78" s="38"/>
       <c r="K78" s="30"/>
     </row>
-    <row r="79" ht="17.55" spans="1:11">
+    <row r="79" spans="1:11">
       <c r="A79" s="30"/>
       <c r="B79" s="38"/>
       <c r="C79" s="30"/>
@@ -3559,7 +3560,7 @@
       <c r="J79" s="38"/>
       <c r="K79" s="30"/>
     </row>
-    <row r="80" ht="17.55" spans="1:11">
+    <row r="80" spans="1:11">
       <c r="A80" s="30"/>
       <c r="B80" s="38"/>
       <c r="C80" s="30"/>
@@ -3572,7 +3573,7 @@
       <c r="J80" s="38"/>
       <c r="K80" s="30"/>
     </row>
-    <row r="81" ht="17.55" spans="1:11">
+    <row r="81" spans="1:11">
       <c r="A81" s="30"/>
       <c r="B81" s="38"/>
       <c r="C81" s="30"/>
@@ -3585,7 +3586,7 @@
       <c r="J81" s="38"/>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" ht="17.55" spans="1:11">
+    <row r="82" spans="1:11">
       <c r="A82" s="30"/>
       <c r="B82" s="38"/>
       <c r="C82" s="30"/>
@@ -3598,7 +3599,7 @@
       <c r="J82" s="38"/>
       <c r="K82" s="30"/>
     </row>
-    <row r="83" ht="17.55" spans="1:11">
+    <row r="83" spans="1:11">
       <c r="A83" s="30"/>
       <c r="B83" s="38"/>
       <c r="C83" s="30"/>
@@ -3611,7 +3612,7 @@
       <c r="J83" s="38"/>
       <c r="K83" s="30"/>
     </row>
-    <row r="84" ht="17.55" spans="1:11">
+    <row r="84" spans="1:11">
       <c r="A84" s="30"/>
       <c r="B84" s="38"/>
       <c r="C84" s="30"/>
@@ -3624,7 +3625,7 @@
       <c r="J84" s="38"/>
       <c r="K84" s="30"/>
     </row>
-    <row r="85" ht="17.55" spans="1:11">
+    <row r="85" spans="1:11">
       <c r="A85" s="30"/>
       <c r="B85" s="38"/>
       <c r="C85" s="30"/>
@@ -3637,7 +3638,7 @@
       <c r="J85" s="38"/>
       <c r="K85" s="30"/>
     </row>
-    <row r="86" ht="17.55" spans="1:11">
+    <row r="86" spans="1:11">
       <c r="A86" s="30"/>
       <c r="B86" s="38"/>
       <c r="C86" s="30"/>
@@ -3650,7 +3651,7 @@
       <c r="J86" s="38"/>
       <c r="K86" s="30"/>
     </row>
-    <row r="87" ht="17.55" spans="1:11">
+    <row r="87" spans="1:11">
       <c r="A87" s="30"/>
       <c r="B87" s="38"/>
       <c r="C87" s="30"/>
@@ -3663,7 +3664,7 @@
       <c r="J87" s="38"/>
       <c r="K87" s="30"/>
     </row>
-    <row r="88" ht="17.55" spans="1:11">
+    <row r="88" spans="1:11">
       <c r="A88" s="30"/>
       <c r="B88" s="38"/>
       <c r="C88" s="30"/>
@@ -3676,7 +3677,7 @@
       <c r="J88" s="38"/>
       <c r="K88" s="30"/>
     </row>
-    <row r="89" ht="17.55" spans="1:11">
+    <row r="89" spans="1:11">
       <c r="A89" s="30"/>
       <c r="B89" s="38"/>
       <c r="C89" s="30"/>
@@ -3689,7 +3690,7 @@
       <c r="J89" s="38"/>
       <c r="K89" s="30"/>
     </row>
-    <row r="90" ht="17.55" spans="1:11">
+    <row r="90" spans="1:11">
       <c r="A90" s="30"/>
       <c r="B90" s="38"/>
       <c r="C90" s="30"/>
@@ -3702,7 +3703,7 @@
       <c r="J90" s="38"/>
       <c r="K90" s="30"/>
     </row>
-    <row r="91" ht="17.55" spans="1:11">
+    <row r="91" spans="1:11">
       <c r="A91" s="30"/>
       <c r="B91" s="38"/>
       <c r="C91" s="30"/>
@@ -3715,7 +3716,7 @@
       <c r="J91" s="38"/>
       <c r="K91" s="30"/>
     </row>
-    <row r="92" ht="17.55" spans="1:11">
+    <row r="92" spans="1:11">
       <c r="A92" s="30"/>
       <c r="B92" s="38"/>
       <c r="C92" s="30"/>
@@ -3728,7 +3729,7 @@
       <c r="J92" s="38"/>
       <c r="K92" s="30"/>
     </row>
-    <row r="93" ht="17.55" spans="1:11">
+    <row r="93" spans="1:11">
       <c r="A93" s="30"/>
       <c r="B93" s="38"/>
       <c r="C93" s="30"/>
@@ -3741,7 +3742,7 @@
       <c r="J93" s="38"/>
       <c r="K93" s="30"/>
     </row>
-    <row r="94" ht="17.55" spans="1:11">
+    <row r="94" spans="1:11">
       <c r="A94" s="30"/>
       <c r="B94" s="38"/>
       <c r="C94" s="30"/>
@@ -3754,7 +3755,7 @@
       <c r="J94" s="38"/>
       <c r="K94" s="30"/>
     </row>
-    <row r="95" ht="17.55" spans="1:11">
+    <row r="95" spans="1:11">
       <c r="A95" s="30"/>
       <c r="B95" s="38"/>
       <c r="C95" s="30"/>
@@ -3767,7 +3768,7 @@
       <c r="J95" s="38"/>
       <c r="K95" s="30"/>
     </row>
-    <row r="96" ht="17.55" spans="1:11">
+    <row r="96" spans="1:11">
       <c r="A96" s="30"/>
       <c r="B96" s="38"/>
       <c r="C96" s="30"/>
@@ -3780,7 +3781,7 @@
       <c r="J96" s="38"/>
       <c r="K96" s="30"/>
     </row>
-    <row r="97" ht="17.55" spans="1:11">
+    <row r="97" spans="1:11">
       <c r="A97" s="30"/>
       <c r="B97" s="38"/>
       <c r="C97" s="30"/>
@@ -3793,7 +3794,7 @@
       <c r="J97" s="38"/>
       <c r="K97" s="30"/>
     </row>
-    <row r="98" ht="17.55" spans="1:11">
+    <row r="98" spans="1:11">
       <c r="A98" s="30"/>
       <c r="B98" s="38"/>
       <c r="C98" s="30"/>
@@ -3806,7 +3807,7 @@
       <c r="J98" s="38"/>
       <c r="K98" s="30"/>
     </row>
-    <row r="99" ht="17.55" spans="1:11">
+    <row r="99" spans="1:11">
       <c r="A99" s="30"/>
       <c r="B99" s="38"/>
       <c r="C99" s="30"/>
@@ -3819,7 +3820,7 @@
       <c r="J99" s="38"/>
       <c r="K99" s="30"/>
     </row>
-    <row r="100" ht="17.55" spans="1:11">
+    <row r="100" spans="1:11">
       <c r="A100" s="30"/>
       <c r="B100" s="38"/>
       <c r="C100" s="30"/>
@@ -3832,7 +3833,7 @@
       <c r="J100" s="38"/>
       <c r="K100" s="30"/>
     </row>
-    <row r="101" ht="17.55" spans="1:11">
+    <row r="101" spans="1:11">
       <c r="A101" s="30"/>
       <c r="B101" s="38"/>
       <c r="C101" s="30"/>
@@ -3845,7 +3846,7 @@
       <c r="J101" s="38"/>
       <c r="K101" s="30"/>
     </row>
-    <row r="102" ht="17.55" spans="1:11">
+    <row r="102" spans="1:11">
       <c r="A102" s="27"/>
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
@@ -3858,7 +3859,7 @@
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
     </row>
-    <row r="103" ht="17.55" spans="1:11">
+    <row r="103" spans="1:11">
       <c r="A103" s="27"/>
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
@@ -3871,7 +3872,7 @@
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
     </row>
-    <row r="104" ht="17.55" spans="1:11">
+    <row r="104" spans="1:11">
       <c r="A104" s="28"/>
       <c r="B104" s="37"/>
       <c r="C104" s="28"/>
@@ -3884,7 +3885,7 @@
       <c r="J104" s="37"/>
       <c r="K104" s="28"/>
     </row>
-    <row r="105" ht="17.55" spans="1:11">
+    <row r="105" spans="1:11">
       <c r="A105" s="30"/>
       <c r="B105" s="38"/>
       <c r="C105" s="30"/>
@@ -3897,7 +3898,7 @@
       <c r="J105" s="38"/>
       <c r="K105" s="30"/>
     </row>
-    <row r="106" ht="17.55" spans="1:11">
+    <row r="106" spans="1:11">
       <c r="A106" s="30"/>
       <c r="B106" s="38"/>
       <c r="C106" s="30"/>
@@ -3910,7 +3911,7 @@
       <c r="J106" s="38"/>
       <c r="K106" s="30"/>
     </row>
-    <row r="107" ht="17.55" spans="1:11">
+    <row r="107" spans="1:11">
       <c r="A107" s="30"/>
       <c r="B107" s="38"/>
       <c r="C107" s="30"/>
@@ -3923,7 +3924,7 @@
       <c r="J107" s="38"/>
       <c r="K107" s="30"/>
     </row>
-    <row r="108" ht="17.55" spans="1:11">
+    <row r="108" spans="1:11">
       <c r="A108" s="30"/>
       <c r="B108" s="38"/>
       <c r="C108" s="30"/>
@@ -3936,7 +3937,7 @@
       <c r="J108" s="38"/>
       <c r="K108" s="30"/>
     </row>
-    <row r="109" ht="17.55" spans="1:11">
+    <row r="109" spans="1:11">
       <c r="A109" s="30"/>
       <c r="B109" s="38"/>
       <c r="C109" s="30"/>
@@ -3949,7 +3950,7 @@
       <c r="J109" s="38"/>
       <c r="K109" s="30"/>
     </row>
-    <row r="110" ht="17.55" spans="1:11">
+    <row r="110" spans="1:11">
       <c r="A110" s="30"/>
       <c r="B110" s="38"/>
       <c r="C110" s="30"/>
@@ -3962,7 +3963,7 @@
       <c r="J110" s="38"/>
       <c r="K110" s="30"/>
     </row>
-    <row r="111" ht="17.55" spans="1:11">
+    <row r="111" spans="1:11">
       <c r="A111" s="30"/>
       <c r="B111" s="38"/>
       <c r="C111" s="30"/>
@@ -3975,7 +3976,7 @@
       <c r="J111" s="38"/>
       <c r="K111" s="30"/>
     </row>
-    <row r="112" ht="17.55" spans="1:11">
+    <row r="112" spans="1:11">
       <c r="A112" s="30"/>
       <c r="B112" s="38"/>
       <c r="C112" s="30"/>
@@ -3988,7 +3989,7 @@
       <c r="J112" s="38"/>
       <c r="K112" s="30"/>
     </row>
-    <row r="113" ht="17.55" spans="1:11">
+    <row r="113" spans="1:11">
       <c r="A113" s="30"/>
       <c r="B113" s="38"/>
       <c r="C113" s="30"/>
@@ -4001,7 +4002,7 @@
       <c r="J113" s="38"/>
       <c r="K113" s="30"/>
     </row>
-    <row r="114" ht="17.55" spans="1:11">
+    <row r="114" spans="1:11">
       <c r="A114" s="30"/>
       <c r="B114" s="38"/>
       <c r="C114" s="30"/>
@@ -4014,7 +4015,7 @@
       <c r="J114" s="38"/>
       <c r="K114" s="30"/>
     </row>
-    <row r="115" ht="17.55" spans="1:11">
+    <row r="115" spans="1:11">
       <c r="A115" s="30"/>
       <c r="B115" s="38"/>
       <c r="C115" s="30"/>
@@ -4027,7 +4028,7 @@
       <c r="J115" s="38"/>
       <c r="K115" s="30"/>
     </row>
-    <row r="116" ht="17.55" spans="1:11">
+    <row r="116" spans="1:11">
       <c r="A116" s="30"/>
       <c r="B116" s="38"/>
       <c r="C116" s="30"/>
@@ -4040,7 +4041,7 @@
       <c r="J116" s="38"/>
       <c r="K116" s="30"/>
     </row>
-    <row r="117" ht="17.55" spans="1:11">
+    <row r="117" spans="1:11">
       <c r="A117" s="30"/>
       <c r="B117" s="38"/>
       <c r="C117" s="30"/>
@@ -4053,7 +4054,7 @@
       <c r="J117" s="38"/>
       <c r="K117" s="30"/>
     </row>
-    <row r="118" ht="17.55" spans="1:11">
+    <row r="118" spans="1:11">
       <c r="A118" s="30"/>
       <c r="B118" s="38"/>
       <c r="C118" s="30"/>
@@ -4066,7 +4067,7 @@
       <c r="J118" s="38"/>
       <c r="K118" s="30"/>
     </row>
-    <row r="119" ht="17.55" spans="1:11">
+    <row r="119" spans="1:11">
       <c r="A119" s="30"/>
       <c r="B119" s="38"/>
       <c r="C119" s="30"/>
@@ -4079,7 +4080,7 @@
       <c r="J119" s="38"/>
       <c r="K119" s="30"/>
     </row>
-    <row r="120" ht="17.55" spans="1:11">
+    <row r="120" spans="1:11">
       <c r="A120" s="30"/>
       <c r="B120" s="38"/>
       <c r="C120" s="30"/>
@@ -4092,7 +4093,7 @@
       <c r="J120" s="38"/>
       <c r="K120" s="30"/>
     </row>
-    <row r="121" ht="17.55" spans="1:11">
+    <row r="121" spans="1:11">
       <c r="A121" s="30"/>
       <c r="B121" s="38"/>
       <c r="C121" s="30"/>
@@ -4105,7 +4106,7 @@
       <c r="J121" s="38"/>
       <c r="K121" s="30"/>
     </row>
-    <row r="122" ht="17.55" spans="1:11">
+    <row r="122" spans="1:11">
       <c r="A122" s="30"/>
       <c r="B122" s="38"/>
       <c r="C122" s="30"/>
@@ -4118,7 +4119,7 @@
       <c r="J122" s="38"/>
       <c r="K122" s="30"/>
     </row>
-    <row r="123" ht="17.55" spans="1:11">
+    <row r="123" spans="1:11">
       <c r="A123" s="30"/>
       <c r="B123" s="38"/>
       <c r="C123" s="30"/>
@@ -4131,7 +4132,7 @@
       <c r="J123" s="38"/>
       <c r="K123" s="30"/>
     </row>
-    <row r="124" ht="17.55" spans="1:11">
+    <row r="124" spans="1:11">
       <c r="A124" s="30"/>
       <c r="B124" s="38"/>
       <c r="C124" s="30"/>
@@ -4144,7 +4145,7 @@
       <c r="J124" s="38"/>
       <c r="K124" s="30"/>
     </row>
-    <row r="125" ht="17.55" spans="1:11">
+    <row r="125" spans="1:11">
       <c r="A125" s="30"/>
       <c r="B125" s="38"/>
       <c r="C125" s="30"/>
@@ -4157,7 +4158,7 @@
       <c r="J125" s="38"/>
       <c r="K125" s="30"/>
     </row>
-    <row r="126" ht="17.55" spans="1:11">
+    <row r="126" spans="1:11">
       <c r="A126" s="30"/>
       <c r="B126" s="38"/>
       <c r="C126" s="30"/>
@@ -4170,7 +4171,7 @@
       <c r="J126" s="38"/>
       <c r="K126" s="30"/>
     </row>
-    <row r="127" ht="17.55" spans="1:11">
+    <row r="127" spans="1:11">
       <c r="A127" s="30"/>
       <c r="B127" s="38"/>
       <c r="C127" s="30"/>
@@ -4183,7 +4184,7 @@
       <c r="J127" s="38"/>
       <c r="K127" s="30"/>
     </row>
-    <row r="128" ht="17.55" spans="1:11">
+    <row r="128" spans="1:11">
       <c r="A128" s="30"/>
       <c r="B128" s="38"/>
       <c r="C128" s="30"/>
@@ -4196,7 +4197,7 @@
       <c r="J128" s="38"/>
       <c r="K128" s="30"/>
     </row>
-    <row r="129" ht="17.55" spans="1:11">
+    <row r="129" spans="1:11">
       <c r="A129" s="30"/>
       <c r="B129" s="38"/>
       <c r="C129" s="30"/>
@@ -4209,7 +4210,7 @@
       <c r="J129" s="38"/>
       <c r="K129" s="30"/>
     </row>
-    <row r="130" ht="17.55" spans="1:11">
+    <row r="130" spans="1:11">
       <c r="A130" s="30"/>
       <c r="B130" s="38"/>
       <c r="C130" s="30"/>
@@ -4222,7 +4223,7 @@
       <c r="J130" s="38"/>
       <c r="K130" s="30"/>
     </row>
-    <row r="131" ht="17.55" spans="1:11">
+    <row r="131" spans="1:11">
       <c r="A131" s="30"/>
       <c r="B131" s="38"/>
       <c r="C131" s="30"/>
@@ -4235,7 +4236,7 @@
       <c r="J131" s="38"/>
       <c r="K131" s="30"/>
     </row>
-    <row r="132" ht="17.55" spans="1:11">
+    <row r="132" spans="1:11">
       <c r="A132" s="30"/>
       <c r="B132" s="38"/>
       <c r="C132" s="30"/>
@@ -4248,7 +4249,7 @@
       <c r="J132" s="38"/>
       <c r="K132" s="30"/>
     </row>
-    <row r="133" ht="17.55" spans="1:11">
+    <row r="133" spans="1:11">
       <c r="A133" s="30"/>
       <c r="B133" s="38"/>
       <c r="C133" s="30"/>
@@ -4261,7 +4262,7 @@
       <c r="J133" s="38"/>
       <c r="K133" s="30"/>
     </row>
-    <row r="134" ht="17.55" spans="1:11">
+    <row r="134" spans="1:11">
       <c r="A134" s="30"/>
       <c r="B134" s="38"/>
       <c r="C134" s="30"/>
@@ -4274,7 +4275,7 @@
       <c r="J134" s="38"/>
       <c r="K134" s="30"/>
     </row>
-    <row r="135" ht="17.55" spans="1:11">
+    <row r="135" spans="1:11">
       <c r="A135" s="30"/>
       <c r="B135" s="38"/>
       <c r="C135" s="30"/>
@@ -4287,7 +4288,7 @@
       <c r="J135" s="38"/>
       <c r="K135" s="30"/>
     </row>
-    <row r="136" ht="17.55" spans="1:11">
+    <row r="136" spans="1:11">
       <c r="A136" s="30"/>
       <c r="B136" s="38"/>
       <c r="C136" s="30"/>
@@ -4300,7 +4301,7 @@
       <c r="J136" s="38"/>
       <c r="K136" s="30"/>
     </row>
-    <row r="137" ht="17.55" spans="1:11">
+    <row r="137" spans="1:11">
       <c r="A137" s="30"/>
       <c r="B137" s="38"/>
       <c r="C137" s="30"/>
@@ -4313,7 +4314,7 @@
       <c r="J137" s="38"/>
       <c r="K137" s="30"/>
     </row>
-    <row r="138" ht="17.55" spans="1:11">
+    <row r="138" spans="1:11">
       <c r="A138" s="30"/>
       <c r="B138" s="38"/>
       <c r="C138" s="30"/>
@@ -4326,7 +4327,7 @@
       <c r="J138" s="38"/>
       <c r="K138" s="30"/>
     </row>
-    <row r="139" ht="17.55" spans="1:11">
+    <row r="139" spans="1:11">
       <c r="A139" s="30"/>
       <c r="B139" s="38"/>
       <c r="C139" s="30"/>
@@ -4339,7 +4340,7 @@
       <c r="J139" s="38"/>
       <c r="K139" s="30"/>
     </row>
-    <row r="140" ht="17.55" spans="1:11">
+    <row r="140" spans="1:11">
       <c r="A140" s="30"/>
       <c r="B140" s="38"/>
       <c r="C140" s="30"/>
@@ -4352,7 +4353,7 @@
       <c r="J140" s="38"/>
       <c r="K140" s="30"/>
     </row>
-    <row r="141" ht="17.55" spans="1:11">
+    <row r="141" spans="1:11">
       <c r="A141" s="30"/>
       <c r="B141" s="38"/>
       <c r="C141" s="30"/>
@@ -4365,7 +4366,7 @@
       <c r="J141" s="38"/>
       <c r="K141" s="30"/>
     </row>
-    <row r="142" ht="17.55" spans="1:11">
+    <row r="142" spans="1:11">
       <c r="A142" s="30"/>
       <c r="B142" s="38"/>
       <c r="C142" s="30"/>
@@ -4378,7 +4379,7 @@
       <c r="J142" s="38"/>
       <c r="K142" s="30"/>
     </row>
-    <row r="143" ht="17.55" spans="1:11">
+    <row r="143" spans="1:11">
       <c r="A143" s="30"/>
       <c r="B143" s="38"/>
       <c r="C143" s="30"/>
@@ -4391,7 +4392,7 @@
       <c r="J143" s="38"/>
       <c r="K143" s="30"/>
     </row>
-    <row r="144" ht="17.55" spans="1:11">
+    <row r="144" spans="1:11">
       <c r="A144" s="30"/>
       <c r="B144" s="38"/>
       <c r="C144" s="30"/>
@@ -4404,7 +4405,7 @@
       <c r="J144" s="38"/>
       <c r="K144" s="30"/>
     </row>
-    <row r="145" ht="17.55" spans="1:11">
+    <row r="145" spans="1:11">
       <c r="A145" s="30"/>
       <c r="B145" s="38"/>
       <c r="C145" s="30"/>
@@ -4417,7 +4418,7 @@
       <c r="J145" s="38"/>
       <c r="K145" s="30"/>
     </row>
-    <row r="146" ht="17.55" spans="1:11">
+    <row r="146" spans="1:11">
       <c r="A146" s="30"/>
       <c r="B146" s="38"/>
       <c r="C146" s="30"/>
@@ -7272,13 +7273,13 @@
       </c>
       <c r="Q2" s="21">
         <f ca="1">TODAY()</f>
-        <v>45841</v>
+        <v>45842</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" ht="24" spans="2:16">
       <c r="B3" s="15" t="str">
         <v>0</v>
       </c>
@@ -16519,6 +16520,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1"/>
   <mergeCells count="1">
     <mergeCell ref="M1:N1"/>
   </mergeCells>
@@ -16741,4 +16743,26 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="2" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="12" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="1" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="3" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="10" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="5" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="11" master="" otherUserPermission="visible"/>
+  <rangeList sheetStid="9" master="" otherUserPermission="visible"/>
+</allowEditUser>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/hema/3-单袋比.xlsx
+++ b/hema/3-单袋比.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="14920" activeTab="7"/>
+    <workbookView windowHeight="16360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="盘点表" sheetId="2" r:id="rId1"/>
@@ -1858,7 +1858,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="A7:H86"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.5" defaultRowHeight="28.8"/>
@@ -1880,7 +1880,7 @@
     <row r="1" spans="1:9">
       <c r="A1" s="47">
         <f ca="1">TODAY()</f>
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -2341,8 +2341,8 @@
   </sheetPr>
   <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:AZ1825"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.35714285714286" defaultRowHeight="16.8"/>
@@ -2410,7 +2410,7 @@
   <dimension ref="A1048515:A1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="A1:Q89"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33035714285714" defaultRowHeight="16.8"/>
@@ -2514,7 +2514,7 @@
   <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A94" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="110.714285714286" defaultRowHeight="17.6"/>
@@ -4457,7 +4457,7 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.1607142857143" defaultRowHeight="15.2"/>
@@ -7143,7 +7143,7 @@
   <dimension ref="A1:DK300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.5" defaultRowHeight="23.2"/>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="Q2" s="21">
         <f ca="1">TODAY()</f>
-        <v>45842</v>
+        <v>45849</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="19"/>
@@ -16537,8 +16537,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52" defaultRowHeight="16.8"/>
@@ -16697,30 +16697,26 @@
       <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="13">
-        <v>24</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="11">
         <v>500</v>
       </c>
       <c r="J12" s="11">
         <f>H12*I12</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" ht="40" spans="7:10">
       <c r="G13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="13">
-        <v>13</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="I13" s="11">
         <v>1000</v>
       </c>
       <c r="J13" s="11">
         <f>H13*I13</f>
-        <v>13000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" ht="40" spans="7:10">
@@ -16729,7 +16725,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11">
         <f>SUM(J12:J13)</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
